--- a/natmiOut/OldD2/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H2">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I2">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J2">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N2">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O2">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P2">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q2">
-        <v>409.653064872554</v>
+        <v>411.4389083346379</v>
       </c>
       <c r="R2">
-        <v>409.653064872554</v>
+        <v>1645.755633338551</v>
       </c>
       <c r="S2">
-        <v>0.01744274917349752</v>
+        <v>0.01693680001048998</v>
       </c>
       <c r="T2">
-        <v>0.01744274917349752</v>
+        <v>0.009006159828766205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H3">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I3">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J3">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N3">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O3">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P3">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q3">
-        <v>347.3522519798858</v>
+        <v>375.9639734570487</v>
       </c>
       <c r="R3">
-        <v>347.3522519798858</v>
+        <v>2255.783840742292</v>
       </c>
       <c r="S3">
-        <v>0.01479002288929434</v>
+        <v>0.01547648144256736</v>
       </c>
       <c r="T3">
-        <v>0.01479002288929434</v>
+        <v>0.01234445102135886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H4">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I4">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J4">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N4">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O4">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P4">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q4">
-        <v>656.2857567549637</v>
+        <v>667.3385268674542</v>
       </c>
       <c r="R4">
-        <v>656.2857567549637</v>
+        <v>4004.031161204725</v>
       </c>
       <c r="S4">
-        <v>0.027944201625288</v>
+        <v>0.02747085640149589</v>
       </c>
       <c r="T4">
-        <v>0.027944201625288</v>
+        <v>0.02191148179393893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H5">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I5">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J5">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N5">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O5">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P5">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q5">
-        <v>706.8929572355728</v>
+        <v>710.9705183779018</v>
       </c>
       <c r="R5">
-        <v>706.8929572355728</v>
+        <v>4265.823110267411</v>
       </c>
       <c r="S5">
-        <v>0.03009902183792522</v>
+        <v>0.02926695856709566</v>
       </c>
       <c r="T5">
-        <v>0.03009902183792522</v>
+        <v>0.02334410039622795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H6">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I6">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J6">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N6">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O6">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P6">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q6">
-        <v>277.2109338940429</v>
+        <v>284.2061156093542</v>
       </c>
       <c r="R6">
-        <v>277.2109338940429</v>
+        <v>1705.236693656125</v>
       </c>
       <c r="S6">
-        <v>0.01180345322100567</v>
+        <v>0.01169928765686594</v>
       </c>
       <c r="T6">
-        <v>0.01180345322100567</v>
+        <v>0.009331661334064319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H7">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I7">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J7">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N7">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O7">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P7">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q7">
-        <v>340.3516219286036</v>
+        <v>345.9096555872073</v>
       </c>
       <c r="R7">
-        <v>340.3516219286036</v>
+        <v>1383.638622348829</v>
       </c>
       <c r="S7">
-        <v>0.01449194081811796</v>
+        <v>0.01423930148485857</v>
       </c>
       <c r="T7">
-        <v>0.01449194081811796</v>
+        <v>0.00757176237206536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H8">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I8">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J8">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N8">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O8">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P8">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q8">
-        <v>562.8511884758972</v>
+        <v>605.087592543245</v>
       </c>
       <c r="R8">
-        <v>562.8511884758972</v>
+        <v>3630.52555525947</v>
       </c>
       <c r="S8">
-        <v>0.02396582118980215</v>
+        <v>0.02490830919519776</v>
       </c>
       <c r="T8">
-        <v>0.02396582118980215</v>
+        <v>0.01986752635125921</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H9">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I9">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J9">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N9">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O9">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P9">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q9">
-        <v>477.2517151982784</v>
+        <v>552.9159517336933</v>
       </c>
       <c r="R9">
-        <v>477.2517151982784</v>
+        <v>4976.24356560324</v>
       </c>
       <c r="S9">
-        <v>0.02032105377611389</v>
+        <v>0.02276067408167123</v>
       </c>
       <c r="T9">
-        <v>0.02032105377611389</v>
+        <v>0.0272317736551067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H10">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I10">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J10">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N10">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O10">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P10">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q10">
-        <v>901.7172086439904</v>
+        <v>981.4294527175833</v>
       </c>
       <c r="R10">
-        <v>901.7172086439904</v>
+        <v>8832.86507445825</v>
       </c>
       <c r="S10">
-        <v>0.03839450609431343</v>
+        <v>0.04040034626857132</v>
       </c>
       <c r="T10">
-        <v>0.03839450609431343</v>
+        <v>0.04833657743289856</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H11">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I11">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J11">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N11">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O11">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P11">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q11">
-        <v>971.2500045106842</v>
+        <v>1045.597367239297</v>
       </c>
       <c r="R11">
-        <v>971.2500045106842</v>
+        <v>9410.37630515367</v>
       </c>
       <c r="S11">
-        <v>0.04135516529995631</v>
+        <v>0.04304180557961086</v>
       </c>
       <c r="T11">
-        <v>0.04135516529995631</v>
+        <v>0.05149692417040262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H12">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I12">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J12">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N12">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O12">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P12">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q12">
-        <v>380.8796198054005</v>
+        <v>417.9711514795833</v>
       </c>
       <c r="R12">
-        <v>380.8796198054005</v>
+        <v>3761.74036331625</v>
       </c>
       <c r="S12">
-        <v>0.01621759543195304</v>
+        <v>0.01720569848733469</v>
       </c>
       <c r="T12">
-        <v>0.01621759543195304</v>
+        <v>0.02058558042278803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H13">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I13">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J13">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N13">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O13">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P13">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q13">
-        <v>467.6330566739729</v>
+        <v>508.716206699855</v>
       </c>
       <c r="R13">
-        <v>467.6330566739729</v>
+        <v>3052.29724019913</v>
       </c>
       <c r="S13">
-        <v>0.01991149783131172</v>
+        <v>0.02094120045633314</v>
       </c>
       <c r="T13">
-        <v>0.01991149783131172</v>
+        <v>0.01670325547321426</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H14">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I14">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J14">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N14">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O14">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P14">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q14">
-        <v>884.7370763466057</v>
+        <v>886.992411201976</v>
       </c>
       <c r="R14">
-        <v>884.7370763466057</v>
+        <v>5321.954467211855</v>
       </c>
       <c r="S14">
-        <v>0.03767150359782722</v>
+        <v>0.03651286442538287</v>
       </c>
       <c r="T14">
-        <v>0.03767150359782722</v>
+        <v>0.02912362659570276</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H15">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I15">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J15">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N15">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O15">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P15">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q15">
-        <v>750.1845884509655</v>
+        <v>810.5144763569966</v>
       </c>
       <c r="R15">
-        <v>750.1845884509655</v>
+        <v>7294.630287212969</v>
       </c>
       <c r="S15">
-        <v>0.03194235008163451</v>
+        <v>0.03336466560061058</v>
       </c>
       <c r="T15">
-        <v>0.03194235008163451</v>
+        <v>0.03991880989350025</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H16">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I16">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J16">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N16">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O16">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P16">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q16">
-        <v>1417.395331486041</v>
+        <v>1438.668529016961</v>
       </c>
       <c r="R16">
-        <v>1417.395331486041</v>
+        <v>12948.01676115265</v>
       </c>
       <c r="S16">
-        <v>0.06035173020001439</v>
+        <v>0.05922250099285211</v>
       </c>
       <c r="T16">
-        <v>0.06035173020001439</v>
+        <v>0.07085615024141076</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H17">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I17">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J17">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N17">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O17">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P17">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q17">
-        <v>1526.692857696982</v>
+        <v>1532.731692639588</v>
       </c>
       <c r="R17">
-        <v>1526.692857696982</v>
+        <v>13794.5852337563</v>
       </c>
       <c r="S17">
-        <v>0.06500554460653991</v>
+        <v>0.06309459222768175</v>
       </c>
       <c r="T17">
-        <v>0.06500554460653991</v>
+        <v>0.07548887384618816</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H18">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I18">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J18">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N18">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O18">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P18">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q18">
-        <v>598.69878249545</v>
+        <v>612.7001181853611</v>
       </c>
       <c r="R18">
-        <v>598.69878249545</v>
+        <v>5514.30106366825</v>
       </c>
       <c r="S18">
-        <v>0.02549218738738195</v>
+        <v>0.02522167728402806</v>
       </c>
       <c r="T18">
-        <v>0.02549218738738195</v>
+        <v>0.03017621554336527</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H19">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I19">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J19">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N19">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O19">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P19">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q19">
-        <v>735.0651679088966</v>
+        <v>745.7224711907778</v>
       </c>
       <c r="R19">
-        <v>735.0651679088966</v>
+        <v>4474.334827144667</v>
       </c>
       <c r="S19">
-        <v>0.03129857542747446</v>
+        <v>0.03069751572355921</v>
       </c>
       <c r="T19">
-        <v>0.03129857542747446</v>
+        <v>0.02448515062891503</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H20">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I20">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J20">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N20">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O20">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P20">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q20">
-        <v>949.5849930454572</v>
+        <v>955.4416809552807</v>
       </c>
       <c r="R20">
-        <v>949.5849930454572</v>
+        <v>5732.650085731684</v>
       </c>
       <c r="S20">
-        <v>0.04043268383153018</v>
+        <v>0.03933056486447915</v>
       </c>
       <c r="T20">
-        <v>0.04043268383153018</v>
+        <v>0.03137109900681659</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H21">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I21">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J21">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N21">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O21">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P21">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q21">
-        <v>805.1703113298065</v>
+        <v>873.0619382410707</v>
       </c>
       <c r="R21">
-        <v>805.1703113298065</v>
+        <v>7857.557444169636</v>
       </c>
       <c r="S21">
-        <v>0.03428360480310828</v>
+        <v>0.03593941930434319</v>
       </c>
       <c r="T21">
-        <v>0.03428360480310828</v>
+        <v>0.04299934739542584</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H22">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I22">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J22">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N22">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O22">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P22">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q22">
-        <v>1521.285104892054</v>
+        <v>1549.690685446492</v>
       </c>
       <c r="R22">
-        <v>1521.285104892054</v>
+        <v>13947.21616901843</v>
       </c>
       <c r="S22">
-        <v>0.06477528616627173</v>
+        <v>0.06379270575980364</v>
       </c>
       <c r="T22">
-        <v>0.06477528616627173</v>
+        <v>0.0763241245783982</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H23">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I23">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J23">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N23">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O23">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P23">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q23">
-        <v>1638.593730744469</v>
+        <v>1651.01271033934</v>
       </c>
       <c r="R23">
-        <v>1638.593730744469</v>
+        <v>14859.11439305406</v>
       </c>
       <c r="S23">
-        <v>0.06977020775258505</v>
+        <v>0.06796360656063971</v>
       </c>
       <c r="T23">
-        <v>0.06977020775258505</v>
+        <v>0.08131435580523766</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H24">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I24">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J24">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N24">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O24">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P24">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q24">
-        <v>642.5811627109242</v>
+        <v>659.9822314682917</v>
       </c>
       <c r="R24">
-        <v>642.5811627109242</v>
+        <v>5939.840083214625</v>
       </c>
       <c r="S24">
-        <v>0.02736066932214471</v>
+        <v>0.02716803597914447</v>
       </c>
       <c r="T24">
-        <v>0.02736066932214471</v>
+        <v>0.03250491632115731</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H25">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I25">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J25">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N25">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O25">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P25">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q25">
-        <v>788.9426938441941</v>
+        <v>803.2699292603096</v>
       </c>
       <c r="R25">
-        <v>788.9426938441941</v>
+        <v>4819.619575561857</v>
       </c>
       <c r="S25">
-        <v>0.03359264387602951</v>
+        <v>0.03306644527468223</v>
       </c>
       <c r="T25">
-        <v>0.03359264387602951</v>
+        <v>0.02637467150776646</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H26">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I26">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J26">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N26">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O26">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P26">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q26">
-        <v>252.4276990825065</v>
+        <v>256.2843475569312</v>
       </c>
       <c r="R26">
-        <v>252.4276990825065</v>
+        <v>1537.706085341587</v>
       </c>
       <c r="S26">
-        <v>0.01074819992109441</v>
+        <v>0.01054989368399805</v>
       </c>
       <c r="T26">
-        <v>0.01074819992109441</v>
+        <v>0.008414874294648017</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H27">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I27">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J27">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N27">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O27">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P27">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q27">
-        <v>214.0380171833643</v>
+        <v>234.1870923981338</v>
       </c>
       <c r="R27">
-        <v>214.0380171833643</v>
+        <v>2107.683831583204</v>
       </c>
       <c r="S27">
-        <v>0.009113593348761264</v>
+        <v>0.009640264614350311</v>
       </c>
       <c r="T27">
-        <v>0.009113593348761264</v>
+        <v>0.01153399512735548</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H28">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I28">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J28">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N28">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O28">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P28">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q28">
-        <v>404.4024510589626</v>
+        <v>415.6836300438695</v>
       </c>
       <c r="R28">
-        <v>404.4024510589626</v>
+        <v>3741.152670394825</v>
       </c>
       <c r="S28">
-        <v>0.01721918160471619</v>
+        <v>0.01711153312695783</v>
       </c>
       <c r="T28">
-        <v>0.01721918160471619</v>
+        <v>0.02047291724898514</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H29">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I29">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J29">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N29">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O29">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P29">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q29">
-        <v>435.5865438187752</v>
+        <v>442.8618969757119</v>
       </c>
       <c r="R29">
-        <v>435.5865438187752</v>
+        <v>3985.757072781407</v>
       </c>
       <c r="S29">
-        <v>0.01854697908715835</v>
+        <v>0.0182303210255538</v>
       </c>
       <c r="T29">
-        <v>0.01854697908715835</v>
+        <v>0.02181147948634752</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H30">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I30">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J30">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N30">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O30">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P30">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q30">
-        <v>170.8170259269414</v>
+        <v>177.0313342640694</v>
       </c>
       <c r="R30">
-        <v>170.8170259269414</v>
+        <v>1593.282008376625</v>
       </c>
       <c r="S30">
-        <v>0.007273272906510318</v>
+        <v>0.007287459312384931</v>
       </c>
       <c r="T30">
-        <v>0.007273272906510318</v>
+        <v>0.008719005500609256</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H31">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I31">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J31">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N31">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O31">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P31">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q31">
-        <v>209.7242378234497</v>
+        <v>215.4663270779122</v>
       </c>
       <c r="R31">
-        <v>209.7242378234497</v>
+        <v>1292.797962467473</v>
       </c>
       <c r="S31">
-        <v>0.008929915554508191</v>
+        <v>0.008869628070627942</v>
       </c>
       <c r="T31">
-        <v>0.008929915554508191</v>
+        <v>0.007074649990816847</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H32">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I32">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J32">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N32">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O32">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P32">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q32">
-        <v>454.9278576310281</v>
+        <v>459.6966914109261</v>
       </c>
       <c r="R32">
-        <v>454.9278576310281</v>
+        <v>1838.786765643704</v>
       </c>
       <c r="S32">
-        <v>0.01937051908830051</v>
+        <v>0.01892332195665443</v>
       </c>
       <c r="T32">
-        <v>0.01937051908830051</v>
+        <v>0.01006249479991942</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H33">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I33">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J33">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N33">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O33">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P33">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q33">
-        <v>385.7415686263295</v>
+        <v>420.0608916338613</v>
       </c>
       <c r="R33">
-        <v>385.7415686263295</v>
+        <v>2520.365349803168</v>
       </c>
       <c r="S33">
-        <v>0.01642461390941575</v>
+        <v>0.01729172222099216</v>
       </c>
       <c r="T33">
-        <v>0.01642461390941575</v>
+        <v>0.01379233508753979</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H34">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I34">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J34">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N34">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O34">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P34">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q34">
-        <v>728.8183561062302</v>
+        <v>745.6108468052333</v>
       </c>
       <c r="R34">
-        <v>728.8183561062302</v>
+        <v>4473.6650808314</v>
       </c>
       <c r="S34">
-        <v>0.03103259042516073</v>
+        <v>0.03069292072815172</v>
       </c>
       <c r="T34">
-        <v>0.03103259042516073</v>
+        <v>0.02448148553901965</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H35">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I35">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J35">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N35">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O35">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P35">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q35">
-        <v>785.0186564811584</v>
+        <v>794.3604466381906</v>
       </c>
       <c r="R35">
-        <v>785.0186564811584</v>
+        <v>4766.162679829144</v>
       </c>
       <c r="S35">
-        <v>0.03342556103120285</v>
+        <v>0.03269968821230679</v>
       </c>
       <c r="T35">
-        <v>0.03342556103120285</v>
+        <v>0.02608213637243663</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H36">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I36">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J36">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N36">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O36">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P36">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q36">
-        <v>307.8482430188763</v>
+        <v>317.5407293228333</v>
       </c>
       <c r="R36">
-        <v>307.8482430188763</v>
+        <v>1905.244375937</v>
       </c>
       <c r="S36">
-        <v>0.01310796902776921</v>
+        <v>0.01307150033402223</v>
       </c>
       <c r="T36">
-        <v>0.01310796902776921</v>
+        <v>0.01042617446658118</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H37">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I37">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J37">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N37">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O37">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P37">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q37">
-        <v>377.9672300349949</v>
+        <v>386.481494528954</v>
       </c>
       <c r="R37">
-        <v>377.9672300349949</v>
+        <v>1545.925978115816</v>
       </c>
       <c r="S37">
-        <v>0.01609358785428132</v>
+        <v>0.01590943308470057</v>
       </c>
       <c r="T37">
-        <v>0.01609358785428132</v>
+        <v>0.008459856469765867</v>
       </c>
     </row>
   </sheetData>
